--- a/work/BicarbSoda/olderBicarb.xlsx
+++ b/work/BicarbSoda/olderBicarb.xlsx
@@ -32,7 +32,7 @@
     <t>The atmosphere of London</t>
   </si>
   <si>
-    <t>letter </t>
+    <t>letter</t>
   </si>
   <si>
     <t>public health fo the metropolis. Excess of acid in the atmosphere (detected by litmus paper) natural remedy . Bicarbonate of soda in the form of pastilles or lozenges, is the most elegant and best corrective, as it instantly relieves all disorders arising from an excess of aciity in the stomach. Yours J.B.</t>
@@ -53,7 +53,7 @@
     <t>article</t>
   </si>
   <si>
-    <t>in slight cases, where there is but little nausea or pain in the abdomen a mixture of ten grains of bicarbonate of soda or potash and twenty grains of cream of tartar dissolved in water, of which a tea spoonful is to be taken every hour, will be found sufficent. </t>
+    <t>in slight cases, where there is but little nausea or pain in the abdomen a mixture of ten grains of bicarbonate of soda or potash and twenty grains of cream of tartar dissolved in water, of which a tea spoonful is to be taken every hour, will be found sufficent.</t>
   </si>
   <si>
     <t>20.10.1838</t>
@@ -65,7 +65,7 @@
     <t>Carbonic acid as a moving power</t>
   </si>
   <si>
-    <t>demonstration of apparatus at BA, Newcastle. Bicarbonate of soda, warm water, sulphuric acid, ref, M. Thellessier. Robert Addams makes more use of the carbonic acid dsengaged. Can freeze mercury with solid carbonic acid. </t>
+    <t>demonstration of apparatus at BA, Newcastle. Bicarbonate of soda, warm water, sulphuric acid, ref, M. Thellessier. Robert Addams makes more use of the carbonic acid dsengaged. Can freeze mercury with solid carbonic acid.</t>
   </si>
   <si>
     <t>motive power</t>
@@ -80,7 +80,7 @@
     <t>New impulsive power</t>
   </si>
   <si>
-    <t>propel vesses wo fire. 2 large gas producers supplied with bicaronate of soda and sulphuric acid. A few tons of carbonate of soda and acid will suffice to traveerse the ocean and circumnavigate the globe in less than three months. Louisiana. </t>
+    <t>propel vesses wo fire. 2 large gas producers supplied with bicaronate of soda and sulphuric acid. A few tons of carbonate of soda and acid will suffice to traveerse the ocean and circumnavigate the globe in less than three months. Louisiana.</t>
   </si>
   <si>
     <t>18.04.1842</t>
@@ -92,7 +92,7 @@
     <t>On the manufature of soda water</t>
   </si>
   <si>
-    <t>each bottle contains 15 grains of bicarbonate of soda, not like the gas water that other manufacturers make. Technical. </t>
+    <t>each bottle contains 15 grains of bicarbonate of soda, not like the gas water that other manufacturers make. Technical.</t>
   </si>
   <si>
     <t>16.03.1844</t>
@@ -104,7 +104,7 @@
     <t>advert</t>
   </si>
   <si>
-    <t>Webb' soda water uses pressure of 11 atmospheres, valuable agent for checking nausea and vomiting. When it contains bicaronate of soda in soln it proves antacid and is most valuable beverage for persons afflicted with calculi in the bladder. Ppromotes soln of uric acid and assists in breaking up and divigind other calculi (the phosphates). </t>
+    <t>Webb' soda water uses pressure of 11 atmospheres, valuable agent for checking nausea and vomiting. When it contains bicaronate of soda in soln it proves antacid and is most valuable beverage for persons afflicted with calculi in the bladder. Ppromotes soln of uric acid and assists in breaking up and divigind other calculi (the phosphates).</t>
   </si>
   <si>
     <t>29.08.1846</t>
@@ -116,7 +116,7 @@
     <t>Household Hints</t>
   </si>
   <si>
-    <t>discussion of digestibility of unfermented bread and superior nutrition iof brown bread - formula recommended for making beat wthout yeast (the raising process being accomplished by carbonate of soad and muriatic acid) is as follows. Wheat meal 3 pounds avoirdupos, bicarbonate of soda in powder 4 1/3 [?] drachms troy, hydrochloric acid 5 fluid drachms and 25 minims or drops, water 30 fluid ounces and salt 2/3 of an ounce troy. </t>
+    <t>discussion of digestibility of unfermented bread and superior nutrition iof brown bread - formula recommended for making beat wthout yeast (the raising process being accomplished by carbonate of soad and muriatic acid) is as follows. Wheat meal 3 pounds avoirdupos, bicarbonate of soda in powder 4 1/3 [?] drachms troy, hydrochloric acid 5 fluid drachms and 25 minims or drops, water 30 fluid ounces and salt 2/3 of an ounce troy.</t>
   </si>
   <si>
     <t>20.01.1845</t>
@@ -128,7 +128,7 @@
     <t>Heartburn &amp;c.</t>
   </si>
   <si>
-    <t>pure alkaline preparations of bicaronate Soda and Poss compressed into Pills by Broedon's patent process. Sold whole sale by Barclay and Sons and by every chemist and druggist in the UK. </t>
+    <t>pure alkaline preparations of bicaronate Soda and Poss compressed into Pills by Broedon's patent process. Sold whole sale by Barclay and Sons and by every chemist and druggist in the UK.</t>
   </si>
   <si>
     <t>17.11.1854</t>
@@ -140,7 +140,7 @@
     <t>General intelligence</t>
   </si>
   <si>
-    <t>description of solidified milk process and uses - 112lb of milk 28lb Stuart's white sugar and a trivial proportion of bicarbonate of soda, a teaspoonful, merely enugh to ensure the neutralising of any acidity. Evaporating pans, water bath, blowers to evaporate. Eventually compacted into a tablet, covered with tin foil. </t>
+    <t>description of solidified milk process and uses - 112lb of milk 28lb Stuart's white sugar and a trivial proportion of bicarbonate of soda, a teaspoonful, merely enugh to ensure the neutralising of any acidity. Evaporating pans, water bath, blowers to evaporate. Eventually compacted into a tablet, covered with tin foil.</t>
   </si>
   <si>
     <t>18.06.1853</t>
@@ -155,7 +155,7 @@
     <t>article, digest</t>
   </si>
   <si>
-    <t>New Seidlitz powder in one paper. Contrary to the usual practice, this powder keeps well ready mixed in one paper and effervesces briskly when put into water. It is composed of one part of bicarbonate of soda and two parts of bitartrate of soda. Half a tea spoonful dissolve din a tumbler of spring water and drunk quickly is a very good thing for thos ewho are "thristy in the morning" Bastik's Annals of Chemistry. </t>
+    <t>New Seidlitz powder in one paper. Contrary to the usual practice, this powder keeps well ready mixed in one paper and effervesces briskly when put into water. It is composed of one part of bicarbonate of soda and two parts of bitartrate of soda. Half a tea spoonful dissolve din a tumbler of spring water and drunk quickly is a very good thing for thos ewho are "thristy in the morning" Bastik's Annals of Chemistry.</t>
   </si>
   <si>
     <t>25.05.1857</t>
@@ -167,7 +167,7 @@
     <t>Housewife's Corner</t>
   </si>
   <si>
-    <t>Recipe for making German yeast - seems to be rinsed in water, then add for every 12 gallons of yeast at the start, add 1.2 oz carbonate of ammonia and 1 oz bicarbonate of soda which should previously be dissolved ina pint of cold water. Rinsed again and then compessed into a paste, dried in square forms about and inch thick, keeps for 8-10days in summer. </t>
+    <t>Recipe for making German yeast - seems to be rinsed in water, then add for every 12 gallons of yeast at the start, add 1.2 oz carbonate of ammonia and 1 oz bicarbonate of soda which should previously be dissolved ina pint of cold water. Rinsed again and then compessed into a paste, dried in square forms about and inch thick, keeps for 8-10days in summer.</t>
   </si>
   <si>
     <t>17.02.1861</t>
@@ -188,7 +188,7 @@
     <t>18.06.1858</t>
   </si>
   <si>
-    <t>borax - Good tea cannot be made with hard water, all water may be made soft by adding a teaspoonful of borax powder to an ordinary sized kettle of water, in which it should boil The saving in the quntity of tea used will be at least on-fifth. </t>
+    <t>borax - Good tea cannot be made with hard water, all water may be made soft by adding a teaspoonful of borax powder to an ordinary sized kettle of water, in which it should boil The saving in the quntity of tea used will be at least on-fifth.</t>
   </si>
   <si>
     <t>02.08.1861</t>
@@ -200,13 +200,13 @@
     <t>Solidification of Carbonic Acid</t>
   </si>
   <si>
-    <t>solidification of carbonic acid - thilorier. Obtained in the form of now. MM Leir and Drion have suceeded in producing this acid in a state resembling ice. Involves heating bicarbonate of soda to generate carbonic acid. Pharmacuetical Journl. </t>
+    <t>solidification of carbonic acid - thilorier. Obtained in the form of now. MM Leir and Drion have suceeded in producing this acid in a state resembling ice. Involves heating bicarbonate of soda to generate carbonic acid. Pharmacuetical Journl.</t>
   </si>
   <si>
     <t>British Association visit to Manchester</t>
   </si>
   <si>
-    <t>chemical industry, manufacturing chemists, the exhibition of crystal specimens of various inc bicarb of soda. </t>
+    <t>chemical industry, manufacturing chemists, the exhibition of crystal specimens of various inc bicarb of soda.</t>
   </si>
   <si>
     <t>29.06.1865</t>
@@ -227,7 +227,7 @@
     <t>Local intelligence</t>
   </si>
   <si>
-    <t>1st meeting of Chemists' Association for the 13th session - valuable donations to the library and museum inc series of specimens illustrting the mfc of soda ash and bicaronate of soda from Messrs Hutchinson and Earle, Widnes Dock. </t>
+    <t>1st meeting of Chemists' Association for the 13th session - valuable donations to the library and museum inc series of specimens illustrting the mfc of soda ash and bicaronate of soda from Messrs Hutchinson and Earle, Widnes Dock.</t>
   </si>
   <si>
     <t>28.11.1868</t>
@@ -251,7 +251,7 @@
     <t>Curious and useful</t>
   </si>
   <si>
-    <t>heartburn - wineglassfu of cold water into which has been mixed a thrid of a tsp of bicarbonate of soda. To render stone walls impervious to moisture - cover wall w strong soln of soap in cold water with a brush, taking car not to produce a later, then sprinlkel the wall thys wet all over with a staurated soln of alum. </t>
+    <t>heartburn - wineglassfu of cold water into which has been mixed a thrid of a tsp of bicarbonate of soda. To render stone walls impervious to moisture - cover wall w strong soln of soap in cold water with a brush, taking car not to produce a later, then sprinlkel the wall thys wet all over with a staurated soln of alum.</t>
   </si>
   <si>
     <t>17.01.1866</t>
@@ -263,7 +263,7 @@
     <t>The new fire extinguisher</t>
   </si>
   <si>
-    <t>fire extinguisher tested in Glasgow, had been used in various cities to good effect. Small and convenient. Simply a gigantic seidliz power in a metal tube. The cylinder which is about 3 ft high and nine inches diameter contaes a opper tube in the centre. This tube carries on the op a screw which hermetically seals the vessel. Before the tube is inserted, it is fille w tartaric acid in crystals and the vessel is filled with water in which a large qunatit o fbicarbonate of sodaa prepared in aapeculiar way has been dissolved. Just as the crew surpounting the tube resieves its last turn the cork is ejected, the tartaric cid mingles with the impregnated water and a large volume of carbonic accid gas is generated .In the anitpathy fire has to this gas the whole secret lies. </t>
+    <t>fire extinguisher tested in Glasgow, had been used in various cities to good effect. Small and convenient. Simply a gigantic seidliz power in a metal tube. The cylinder which is about 3 ft high and nine inches diameter contaes a opper tube in the centre. This tube carries on the op a screw which hermetically seals the vessel. Before the tube is inserted, it is fille w tartaric acid in crystals and the vessel is filled with water in which a large qunatit o fbicarbonate of sodaa prepared in aapeculiar way has been dissolved. Just as the crew surpounting the tube resieves its last turn the cork is ejected, the tartaric cid mingles with the impregnated water and a large volume of carbonic accid gas is generated .In the anitpathy fire has to this gas the whole secret lies.</t>
   </si>
   <si>
     <t>25.05.1872</t>
@@ -275,7 +275,7 @@
     <t>Scientific Miscellany</t>
   </si>
   <si>
-    <t>technical desriptions of a variety of procese, the longest being New Porcess for te Mfc of Carbonate of Soda an eceedingly simple and beautiful chemical proces. James Young of Kelly. More economical, more economical. . Glasgow Herald given as source </t>
+    <t>technical desriptions of a variety of procese, the longest being New Porcess for te Mfc of Carbonate of Soda an eceedingly simple and beautiful chemical proces. James Young of Kelly. More economical, more economical. . Glasgow Herald given as source</t>
   </si>
   <si>
     <t>17.05.1873</t>
@@ -296,7 +296,7 @@
     <t>Leeds Mercury</t>
   </si>
   <si>
-    <t>Alkali Works - Widnes locally known as No1and No2 workds, by St Helen's Canal, favourable communication between the two. Est by late John Hutchinson, now in full operation. No2 orkds has private pier on the river Mersey, conveneinet berthing for vessels. </t>
+    <t>Alkali Works - Widnes locally known as No1and No2 workds, by St Helen's Canal, favourable communication between the two. Est by late John Hutchinson, now in full operation. No2 orkds has private pier on the river Mersey, conveneinet berthing for vessels.</t>
   </si>
   <si>
     <t>11.01.1878</t>
@@ -308,7 +308,7 @@
     <t>A remedy for burns and scalds</t>
   </si>
   <si>
-    <t>Massachussets Dental Society demonstration of a a discoverey mande by Dr GF Waters. Application of bicarbonate of soda, the simple cooking soda to be found in all households, or other alkalies in a neuthral form, would afford instananeous cessation of pain from the severest burns or scalts. Applied bircar to the scalded surface and laid over it a wet cloth. </t>
+    <t>Massachussets Dental Society demonstration of a a discoverey mande by Dr GF Waters. Application of bicarbonate of soda, the simple cooking soda to be found in all households, or other alkalies in a neuthral form, would afford instananeous cessation of pain from the severest burns or scalts. Applied bircar to the scalded surface and laid over it a wet cloth.</t>
   </si>
   <si>
     <t>16.04.1876</t>
@@ -323,7 +323,7 @@
     <t>answers</t>
   </si>
   <si>
-    <t>Seidlitz poweers are composed of 120 grains of tartarte of soda and potash and 40 grains of bicarbonate of soda recuced to a powder mixed ndenclosed in a blue paper, and 35 grains of powdered tartaic acid in a whit epaper. </t>
+    <t>Seidlitz poweers are composed of 120 grains of tartarte of soda and potash and 40 grains of bicarbonate of soda recuced to a powder mixed ndenclosed in a blue paper, and 35 grains of powdered tartaic acid in a whit epaper.</t>
   </si>
   <si>
     <t>28.07.1876</t>
@@ -335,7 +335,7 @@
     <t>Answers and Inquiries</t>
   </si>
   <si>
-    <t>answer to amateur - don't go and poison urself. Consult a chemist. The ordinary process used for obtainign soda from common salt is complicated and expensive. Describes new method which is simpler and more econoimc. Importance of simple means of obtaining soda from common sat may be jedged from the fact that seven hundred thousandtons of soda worth about five millions sterling are consumed annualy in England. </t>
+    <t>answer to amateur - don't go and poison urself. Consult a chemist. The ordinary process used for obtainign soda from common salt is complicated and expensive. Describes new method which is simpler and more econoimc. Importance of simple means of obtaining soda from common sat may be jedged from the fact that seven hundred thousandtons of soda worth about five millions sterling are consumed annualy in England.</t>
   </si>
   <si>
     <t>12.08.1876</t>
@@ -347,7 +347,7 @@
     <t>28.10.1876</t>
   </si>
   <si>
-    <t>old engravings, woodcuts or printed matter that have turned yellow may be renered white by first washing carefully in water containing a little hypsulphite of soda then dipping for a minute in Javelle water. To prepare the latter, put 4lb bicarbonate of soda in a kettle overa  fire, add one gallon of boiling water and let it boil for fiiteen minutes. Then stire in 1lb of pulverised chloride of lime. When cold, it can be kept in a jug for use. </t>
+    <t>old engravings, woodcuts or printed matter that have turned yellow may be renered white by first washing carefully in water containing a little hypsulphite of soda then dipping for a minute in Javelle water. To prepare the latter, put 4lb bicarbonate of soda in a kettle overa  fire, add one gallon of boiling water and let it boil for fiiteen minutes. Then stire in 1lb of pulverised chloride of lime. When cold, it can be kept in a jug for use.</t>
   </si>
   <si>
     <t>01.02.1879</t>
@@ -359,7 +359,7 @@
     <t>The Ladies column</t>
   </si>
   <si>
-    <t>better tasting coffee if made with a little bicarbonate of soda - coffee abtained at spa towns of Vichy Carlesruhe is of such superior excellence. </t>
+    <t>better tasting coffee if made with a little bicarbonate of soda - coffee abtained at spa towns of Vichy Carlesruhe is of such superior excellence.</t>
   </si>
   <si>
     <t>14.11.1879</t>
@@ -368,7 +368,7 @@
     <t>the household</t>
   </si>
   <si>
-    <t>soda for burns - firecrackers or from any cause. Wet a cloth and sprinkle upon it a liberal allownce of bicarbonate of soda (comon cooking soda) bind it around the wound. </t>
+    <t>soda for burns - firecrackers or from any cause. Wet a cloth and sprinkle upon it a liberal allownce of bicarbonate of soda (comon cooking soda) bind it around the wound.</t>
   </si>
   <si>
     <t>28.10.1879</t>
@@ -380,13 +380,13 @@
     <t>National training school of cookery</t>
   </si>
   <si>
-    <t>arsenic warned as a problem in the use of the hydrochloric acid and bicarbonate of socamethod of making bread. </t>
+    <t>arsenic warned as a problem in the use of the hydrochloric acid and bicarbonate of socamethod of making bread.</t>
   </si>
   <si>
     <t>07.05.1880</t>
   </si>
   <si>
-    <t>recipes for home made soda water - fairly good recipe for making soda water on a small scale for family use - fused chloride of calcium 4 grains, chlorid of magnesium 12 grains, chloride of sodium 15 grains, cirtate of iron 0.5 grains, tartaric acid 2 drachms, bicarbonate of soda 2.5 drachms, water sufficient. Dissolve all except the tartaric and bicarbonate and introduce the soluntion into a champagne bottle. add tartaric, then bicarb, cork tighetly and set aside for about 6hrs. </t>
+    <t>recipes for home made soda water - fairly good recipe for making soda water on a small scale for family use - fused chloride of calcium 4 grains, chlorid of magnesium 12 grains, chloride of sodium 15 grains, cirtate of iron 0.5 grains, tartaric acid 2 drachms, bicarbonate of soda 2.5 drachms, water sufficient. Dissolve all except the tartaric and bicarbonate and introduce the soluntion into a champagne bottle. add tartaric, then bicarb, cork tighetly and set aside for about 6hrs.</t>
   </si>
   <si>
     <t>21.06.1877</t>
@@ -398,7 +398,7 @@
     <t>occasional notes</t>
   </si>
   <si>
-    <t>ingenious and profitable industry  - fabrication fo artificial champagne, without using wine. Wholesome and racy productinog owing to the analysis of sparkling wines at Epernay. Has all the properties of champagne wine but not its possessions, as no graph. </t>
+    <t>ingenious and profitable industry  - fabrication fo artificial champagne, without using wine. Wholesome and racy productinog owing to the analysis of sparkling wines at Epernay. Has all the properties of champagne wine but not its possessions, as no graph.</t>
   </si>
   <si>
     <t>18.06.1881</t>
@@ -428,13 +428,13 @@
     <t>Chemical forgeries</t>
   </si>
   <si>
-    <t>chemical forgeries - cheques - would have been ok with oxalic acid, bleachin powder 40 yrs ago byt, forger of the present day s as much ahead of his predecessors as the chemist or physicist.More complicated processes </t>
+    <t>chemical forgeries - cheques - would have been ok with oxalic acid, bleachin powder 40 yrs ago byt, forger of the present day s as much ahead of his predecessors as the chemist or physicist.More complicated processes</t>
   </si>
   <si>
     <t>08.04.1882</t>
   </si>
   <si>
-    <t>artificial chalybeate waters - complaints peculiar to females. 3 recipes - 2 drachyms crystallised sulphate of iron with 3 drachms pulverised loaf sugar and divide into 12, fold in papers. Mix 2 drachms bicaronate of soda with 3 drachms of loaf sugar and fold into different coolours. mix in separate glasses of water, then mix together. 2) crystallised citric acid in 4 times the amount hot water, charged with pure peroxide of iron in the washed state, precipitated by ammonia from teh sulphate of ireon. This son sweetened and charged with carbonic acid gas. 3) pint of water impregnated w fixed air upon a an ounce of iron filings. Let it remain 24 hrs in a coll plae, then pour off the liquid which will be ready for use. Cassell's household guide. </t>
+    <t>artificial chalybeate waters - complaints peculiar to females. 3 recipes - 2 drachyms crystallised sulphate of iron with 3 drachms pulverised loaf sugar and divide into 12, fold in papers. Mix 2 drachms bicaronate of soda with 3 drachms of loaf sugar and fold into different coolours. mix in separate glasses of water, then mix together. 2) crystallised citric acid in 4 times the amount hot water, charged with pure peroxide of iron in the washed state, precipitated by ammonia from teh sulphate of ireon. This son sweetened and charged with carbonic acid gas. 3) pint of water impregnated w fixed air upon a an ounce of iron filings. Let it remain 24 hrs in a coll plae, then pour off the liquid which will be ready for use. Cassell's household guide.</t>
   </si>
   <si>
     <t>27.10.1882</t>
@@ -455,7 +455,7 @@
     <t>Toilet Drunkeness</t>
   </si>
   <si>
-    <t>toilet drunkeness - A lday compalined of giddiness, headache, difficulty walking and a want of accuracy in manual movements.  Fearing apoplexy he turned all his attnetion in that direction and prescirbed purgatives, mustard footbaths and bicar bonate of soda to dilute the blood. He found by accidnet that this lady, otherwise excllent and kind to the poor, got drunk regularly four times a week on eu de Botot. She drank this water instead of using it to wash her mouth and no one discovered it. Had she drunk wine, chartreuse or cognac her breath would have betrayed her to the least knowing person. Eau de cologne and other toilet tinctures are used in teh same way. London edical Record. </t>
+    <t>toilet drunkeness - A lday compalined of giddiness, headache, difficulty walking and a want of accuracy in manual movements.  Fearing apoplexy he turned all his attnetion in that direction and prescirbed purgatives, mustard footbaths and bicar bonate of soda to dilute the blood. He found by accidnet that this lady, otherwise excllent and kind to the poor, got drunk regularly four times a week on eu de Botot. She drank this water instead of using it to wash her mouth and no one discovered it. Had she drunk wine, chartreuse or cognac her breath would have betrayed her to the least knowing person. Eau de cologne and other toilet tinctures are used in teh same way. London edical Record.</t>
   </si>
   <si>
     <t>06.07.1883</t>
@@ -467,7 +467,7 @@
     <t>Life-saving appliances</t>
   </si>
   <si>
-    <t>international fisheries exhibition. The effects of? Powders were set forth in an unusual manner by Mr Cowell Brown's invetion. A special or any garment, such as an outer coat has placed withing th elining, at convenient places, small macintosh bags, within which are packets of bicarbonate of soda and of tartaric acid. Each bag lies quite flat... lower part pervious to water... fallss overboard effeervescence of the salts takes place the bag is so quickly fille with the carbonic acid gas generated - bags distended to support person. </t>
+    <t>international fisheries exhibition. The effects of? Powders were set forth in an unusual manner by Mr Cowell Brown's invetion. A special or any garment, such as an outer coat has placed withing th elining, at convenient places, small macintosh bags, within which are packets of bicarbonate of soda and of tartaric acid. Each bag lies quite flat... lower part pervious to water... fallss overboard effeervescence of the salts takes place the bag is so quickly fille with the carbonic acid gas generated - bags distended to support person.</t>
   </si>
   <si>
     <t>08.09.1883</t>
@@ -491,19 +491,19 @@
     <t>death from takig too much medicine</t>
   </si>
   <si>
-    <t>bicarb not that much - subnitrate of bismuth, diulte hyrdocyanic acid, disease of kidneys. Took all medicine at once. </t>
+    <t>bicarb not that much - subnitrate of bismuth, diulte hyrdocyanic acid, disease of kidneys. Took all medicine at once.</t>
   </si>
   <si>
     <t>05.07.1884</t>
   </si>
   <si>
-    <t>baking powder - take 14 ounces of cream of tartar, six ounces of bicarbonate of soda and one ounce of corn starch. Mis them thoroughly. Cassell's Saturday Journal. . See also things worht knowing - some cleaning. But not the chems I'm looking at. </t>
+    <t>baking powder - take 14 ounces of cream of tartar, six ounces of bicarbonate of soda and one ounce of corn starch. Mis them thoroughly. Cassell's Saturday Journal. . See also things worht knowing - some cleaning. But not the chems I'm looking at.</t>
   </si>
   <si>
     <t>15.09.1883</t>
   </si>
   <si>
-    <t>remedy for gnat bites or stings - correspondant sends suggestion of boil 2 oz pearl barly in 1.5 pints water for 5-6 mins, straing rhoguh muslin, add 0.5oz bicaronate of soda and a little eau de cologne. Also Ammonia, made in solution with rosewater, vey effectural. rationale is explained tentatively rather than authoratitivelyPoison introduced by the sting is arid, and produes cellular inflammation; the ammonia as wel as the soda are both alkaline or antiacid and so counteract the effect of the poison. In all stings make sure sting is extracted. no mention of different or what the sting migh have been from. </t>
+    <t>remedy for gnat bites or stings - correspondant sends suggestion of boil 2 oz pearl barly in 1.5 pints water for 5-6 mins, straing rhoguh muslin, add 0.5oz bicaronate of soda and a little eau de cologne. Also Ammonia, made in solution with rosewater, vey effectural. rationale is explained tentatively rather than authoratitivelyPoison introduced by the sting is arid, and produes cellular inflammation; the ammonia as wel as the soda are both alkaline or antiacid and so counteract the effect of the poison. In all stings make sure sting is extracted. no mention of different or what the sting migh have been from.</t>
   </si>
   <si>
     <t>03.05.1882</t>
@@ -524,7 +524,7 @@
     <t>17.05.1884</t>
   </si>
   <si>
-    <t>recipe to make Fruit Salt -sulphate of magnesia, cream of tartar, bicarb of soda, super tartarate of potass, powdered lump sugar. Various recipes.  </t>
+    <t>recipe to make Fruit Salt -sulphate of magnesia, cream of tartar, bicarb of soda, super tartarate of potass, powdered lump sugar. Various recipes.</t>
   </si>
   <si>
     <t>05.09.1885</t>
@@ -533,7 +533,7 @@
     <t>the Wrexham Advertiser and North Wales News</t>
   </si>
   <si>
-    <t>JR suggests that tooth powder is precipitated chalk, an antiacid as powerful as bicarbonat of soda. Do not advise tooth powder to be taken ordinarily as remedy for indigesetion. </t>
+    <t>JR suggests that tooth powder is precipitated chalk, an antiacid as powerful as bicarbonat of soda. Do not advise tooth powder to be taken ordinarily as remedy for indigesetion.</t>
   </si>
   <si>
     <t>15.10.1885</t>
@@ -542,10 +542,10 @@
     <t>Soda Water "hands"</t>
   </si>
   <si>
-    <t>dissusion of the process and workers employed in the seasonal business of lemonate, mineral waters. It is not generally known that soda water is simply aerated water without the addition of any salts of chemicals. Addiion of bicarbonate of soda to aerated water gives a soapy taste, far from pleasant. </t>
-  </si>
-  <si>
-    <t>interesting because of all the previous years worth of fake reports/ ads placed explaining that soda water should have bicarbonate in it. </t>
+    <t>dissusion of the process and workers employed in the seasonal business of lemonate, mineral waters. It is not generally known that soda water is simply aerated water without the addition of any salts of chemicals. Addiion of bicarbonate of soda to aerated water gives a soapy taste, far from pleasant.</t>
+  </si>
+  <si>
+    <t>interesting because of all the previous years worth of fake reports/ ads placed explaining that soda water should have bicarbonate in it.</t>
   </si>
   <si>
     <t>05.12.1885</t>
@@ -554,7 +554,7 @@
     <t>To Chemists</t>
   </si>
   <si>
-    <t>BRANDED bicarbonate of soda (Howard's) -  Remington&amp; Co bg to call the atteion of Chemist to the following and will be happy to give quotations for cash or any term of Credit. </t>
+    <t>BRANDED bicarbonate of soda (Howard's) -  Remington&amp; Co bg to call the atteion of Chemist to the following and will be happy to give quotations for cash or any term of Credit.</t>
   </si>
   <si>
     <t>16.05.1885</t>
@@ -563,19 +563,19 @@
     <t>Hampshire Telegraph and Sussex Chronicle etc</t>
   </si>
   <si>
-    <t>The Complexion - borax in rain water to prevent tan and sunbrun. Also effective is bicarbonate of soda and tincture of bezoin. For greasy skin, bicaronate of soda, distilled water and oil of almonds. </t>
+    <t>The Complexion - borax in rain water to prevent tan and sunbrun. Also effective is bicarbonate of soda and tincture of bezoin. For greasy skin, bicaronate of soda, distilled water and oil of almonds.</t>
   </si>
   <si>
     <t>28.02.1885</t>
   </si>
   <si>
-    <t>scanty hair - bicar of soda with distilled or filtered rainwater. Rub onto salp three of four times a week. </t>
+    <t>scanty hair - bicar of soda with distilled or filtered rainwater. Rub onto salp three of four times a week.</t>
   </si>
   <si>
     <t>17.07.1886</t>
   </si>
   <si>
-    <t>avoid sour milk by adding a small poirtion of bicarbonate of soda. Not injurious to health, aids digestion. Many of the dairies on the Continent adopt this method. </t>
+    <t>avoid sour milk by adding a small poirtion of bicarbonate of soda. Not injurious to health, aids digestion. Many of the dairies on the Continent adopt this method.</t>
   </si>
   <si>
     <t>06.07.1889</t>
@@ -584,13 +584,13 @@
     <t>Household department</t>
   </si>
   <si>
-    <t>Discusses Artificial Digestion for the Sick, as presented in Cassell's book of the household - gastric digestion and and intestinal. Bicarbonate of soda and Zymine - extract of pancrease. Peptonised. </t>
+    <t>Discusses Artificial Digestion for the Sick, as presented in Cassell's book of the household - gastric digestion and and intestinal. Bicarbonate of soda and Zymine - extract of pancrease. Peptonised.</t>
   </si>
   <si>
     <t>27.12.1890</t>
   </si>
   <si>
-    <t>certain things that every good housewife should have at hand and kept in a handy place known to the household. Medicine cabinet at the new offices of the National Health Society - vaseline, carbolic solution, collodion, int, absorbent and medicated white wool, smelling salts on sponge, small bottles of tincture of iron, bicarbonate of soda, ammonia, ipecacuanha, castor oil, Firar's baslam, etc. </t>
+    <t>certain things that every good housewife should have at hand and kept in a handy place known to the household. Medicine cabinet at the new offices of the National Health Society - vaseline, carbolic solution, collodion, int, absorbent and medicated white wool, smelling salts on sponge, small bottles of tincture of iron, bicarbonate of soda, ammonia, ipecacuanha, castor oil, Firar's baslam, etc.</t>
   </si>
   <si>
     <t>22.02.1891</t>
@@ -599,7 +599,7 @@
     <t>the home</t>
   </si>
   <si>
-    <t>cake recipe - but also ink stains in cotton, silk or woolen goods  removed with milk, or spirits of turpentine, spirits of ammonia to remove grease spots from cloth and woollen materials. </t>
+    <t>cake recipe - but also ink stains in cotton, silk or woolen goods  removed with milk, or spirits of turpentine, spirits of ammonia to remove grease spots from cloth and woollen materials.</t>
   </si>
   <si>
     <t>22.02.1890</t>
@@ -608,7 +608,7 @@
     <t>What to Wear</t>
   </si>
   <si>
-    <t>Buy your own drugs - give the general public some idea of the extent to which the chemist trades on the ignorance… bicarb of soda 14 shillings a hundredweight. … retailed as from a penny to twopence an ounce, leae a decent profit for Mr chemist. </t>
+    <t>Buy your own drugs - give the general public some idea of the extent to which the chemist trades on the ignorance… bicarb of soda 14 shillings a hundredweight. … retailed as from a penny to twopence an ounce, leae a decent profit for Mr chemist.</t>
   </si>
   <si>
     <t>Lady</t>
@@ -653,7 +653,6 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -733,18 +732,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4419642857143"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.4419642857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5223214285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.4419642857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>109</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>190</v>
       </c>

--- a/work/BicarbSoda/olderBicarb.xlsx
+++ b/work/BicarbSoda/olderBicarb.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cat/Documents/PhD/work/BicarbSoda/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23280" windowHeight="10000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -347,9 +356,6 @@
     <t>28.10.1876</t>
   </si>
   <si>
-    <t>old engravings, woodcuts or printed matter that have turned yellow may be renered white by first washing carefully in water containing a little hypsulphite of soda then dipping for a minute in Javelle water. To prepare the latter, put 4lb bicarbonate of soda in a kettle overa  fire, add one gallon of boiling water and let it boil for fiiteen minutes. Then stire in 1lb of pulverised chloride of lime. When cold, it can be kept in a jug for use.</t>
-  </si>
-  <si>
     <t>01.02.1879</t>
   </si>
   <si>
@@ -639,35 +645,20 @@
   </si>
   <si>
     <t>effeervescent drink - 0.5dr bicarb w 2gr  finely ground ginger, 0.25oz caster sugar, 21gr tartaric acid into another paper - eptied into a glass of water for a cooling drink.</t>
+  </si>
+  <si>
+    <t>old engravings, woodcuts or printed matter that have turned yellow may be renered white by first washing carefully in water containing a little hyposulphite of soda then dipping for a minute in Javelle water. To prepare the latter, put 4lb bicarbonate of soda in a kettle overa  fire, add one gallon of boiling water and let it boil for fiiteen minutes. Then stire in 1lb of pulverised chloride of lime. When cold, it can be kept in a jug for use.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -679,7 +670,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -687,1110 +678,1340 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.4419642857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5223214285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.4419642857143"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>1861</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>1810.61</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="0" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="E63" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>207</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>